--- a/src/main/resources/dataCreate/DataCreate_temp.xlsx
+++ b/src/main/resources/dataCreate/DataCreate_temp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ehsan\AMTPublicRipo\AMT-TestFrameWork\src\main\resources\dataCreate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DSi\Desktop\selemnium1\seleniumTestingFramework\src\main\resources\dataCreate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9B9724-70EC-4384-AAB2-F45E29159ED2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741BF4C0-94EA-49CA-931E-59F7CDFB3DF9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="330" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RecurringPayment" sheetId="6" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="105">
   <si>
     <t>Reference_TcID</t>
   </si>
@@ -175,18 +175,6 @@
     <t>Default</t>
   </si>
   <si>
-    <t>leaseGroup1-contractTerm</t>
-  </si>
-  <si>
-    <t>propertyGroup1-buildingList</t>
-  </si>
-  <si>
-    <t>propertyGroup2-region</t>
-  </si>
-  <si>
-    <t>propertyGroup3-assetType</t>
-  </si>
-  <si>
     <t>Real Estate Contract</t>
   </si>
   <si>
@@ -323,6 +311,33 @@
   </si>
   <si>
     <t>6551767</t>
+  </si>
+  <si>
+    <t>Test60067788Leasespaceincome</t>
+  </si>
+  <si>
+    <t>Test60067788Leasespace</t>
+  </si>
+  <si>
+    <t>Test60067788Leasespacencome</t>
+  </si>
+  <si>
+    <t>Test60067788Leasespace02</t>
+  </si>
+  <si>
+    <t>Test60067788space01income</t>
+  </si>
+  <si>
+    <t>propertyGroup1</t>
+  </si>
+  <si>
+    <t>propertyGroup2</t>
+  </si>
+  <si>
+    <t>propertyGroup3</t>
+  </si>
+  <si>
+    <t>leaseGroup1</t>
   </si>
 </sst>
 </file>
@@ -828,7 +843,7 @@
   <dimension ref="A1:AA993"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -869,7 +884,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>38</v>
@@ -896,7 +911,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -912,20 +927,20 @@
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5"/>
       <c r="D2" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>66</v>
-      </c>
       <c r="G2" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H2" t="s">
         <v>33</v>
@@ -946,31 +961,31 @@
         <v>45</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" s="5"/>
       <c r="D3" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="H3" t="s">
         <v>33</v>
@@ -991,31 +1006,31 @@
         <v>45</v>
       </c>
       <c r="N3" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="F4" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="H4" t="s">
         <v>33</v>
@@ -1036,31 +1051,31 @@
         <v>45</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="F5" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -1081,31 +1096,31 @@
         <v>45</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P5" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F6" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="20" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>88</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1126,31 +1141,31 @@
         <v>45</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="P6" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E7" s="23" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s">
         <v>33</v>
@@ -1171,13 +1186,13 @@
         <v>45</v>
       </c>
       <c r="N7" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O7" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>59</v>
-      </c>
       <c r="P7" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2170,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2240,19 +2255,19 @@
         <v>11</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>13</v>
@@ -2261,7 +2276,7 @@
         <v>14</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
@@ -2270,16 +2285,16 @@
     </row>
     <row r="2" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
@@ -2303,7 +2318,7 @@
         <v>32</v>
       </c>
       <c r="N2" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O2">
         <v>100000000</v>
@@ -2312,33 +2327,33 @@
         <v>1500</v>
       </c>
       <c r="Q2" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R2" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="S2" t="b">
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -2362,7 +2377,7 @@
         <v>32</v>
       </c>
       <c r="N3" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O3">
         <v>100000000</v>
@@ -2371,33 +2386,33 @@
         <v>1500</v>
       </c>
       <c r="Q3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>69</v>
       </c>
       <c r="S3" t="b">
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
         <v>29</v>
@@ -2412,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
@@ -2421,42 +2436,42 @@
         <v>32</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O4">
         <v>100000000</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S4" t="b">
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
         <v>29</v>
@@ -2471,7 +2486,7 @@
         <v>31</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
         <v>22</v>
@@ -2480,42 +2495,42 @@
         <v>32</v>
       </c>
       <c r="N5" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O5">
         <v>100000000</v>
       </c>
       <c r="P5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S5" t="b">
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
         <v>29</v>
@@ -2530,7 +2545,7 @@
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
         <v>22</v>
@@ -2539,42 +2554,42 @@
         <v>32</v>
       </c>
       <c r="N6" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O6">
         <v>100000000</v>
       </c>
       <c r="P6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R6" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S6" t="b">
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
         <v>29</v>
@@ -2589,7 +2604,7 @@
         <v>31</v>
       </c>
       <c r="K7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L7" t="s">
         <v>22</v>
@@ -2598,28 +2613,28 @@
         <v>32</v>
       </c>
       <c r="N7" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="O7">
         <v>100000000</v>
       </c>
       <c r="P7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S7" t="b">
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -5602,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5665,7 +5680,7 @@
         <v>21</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>14</v>
@@ -5677,24 +5692,24 @@
         <v>48</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="22">
         <v>60067788</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H2" s="18" t="s">
         <v>22</v>
@@ -5712,36 +5727,36 @@
         <v>45</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="P2" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E3" s="22">
         <v>60067788</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H3" s="18" t="s">
         <v>22</v>
@@ -5750,7 +5765,7 @@
         <v>23</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K3" s="14" t="s">
         <v>25</v>
@@ -5759,36 +5774,36 @@
         <v>45</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O3" s="14" t="s">
         <v>49</v>
       </c>
       <c r="P3" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="22">
         <v>60067788</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>22</v>
@@ -5806,36 +5821,36 @@
         <v>45</v>
       </c>
       <c r="M4" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P4" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E5" s="22">
         <v>60067788</v>
       </c>
       <c r="F5" s="23" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" s="18" t="s">
         <v>22</v>
@@ -5844,7 +5859,7 @@
         <v>23</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>25</v>
@@ -5853,36 +5868,36 @@
         <v>45</v>
       </c>
       <c r="M5" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P5" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E6" s="22">
         <v>60067788</v>
       </c>
       <c r="F6" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>22</v>
@@ -5900,36 +5915,36 @@
         <v>45</v>
       </c>
       <c r="M6" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P6" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="22">
         <v>60067788</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="H7" s="18" t="s">
         <v>22</v>
@@ -5938,7 +5953,7 @@
         <v>23</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>25</v>
@@ -5947,19 +5962,19 @@
         <v>45</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="Q7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -9964,13 +9979,13 @@
         <v>28</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -9992,22 +10007,22 @@
     </row>
     <row r="2" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -10019,27 +10034,27 @@
         <v>45</v>
       </c>
       <c r="L2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G3" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -10051,27 +10066,27 @@
         <v>45</v>
       </c>
       <c r="L3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -10083,27 +10098,27 @@
         <v>45</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G5" s="23" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -10115,27 +10130,27 @@
         <v>45</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>71</v>
-      </c>
       <c r="G6" s="23" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -10147,27 +10162,27 @@
         <v>45</v>
       </c>
       <c r="L6" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -10179,27 +10194,27 @@
         <v>45</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="G8" s="23" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -10211,7 +10226,7 @@
         <v>45</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
